--- a/biology/Botanique/Pachystachys_lutea/Pachystachys_lutea.xlsx
+++ b/biology/Botanique/Pachystachys_lutea/Pachystachys_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachystachys lutea est une espèce d'arbustes à feuillage persistant du genre Pachystachys de la famille des Acanthacées. Cet arbuste est originaire des régions tropicales d'Amérique (Brésil, Pérou, Amérique centrale), il est cultivé ailleurs comme plante ornementale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles de cet arbuste sont d'un vert sombre, il présente des épis floraux constitués de bractées florales jaune vif d'environ 10 cm d'où émergent de 1 à 3 petites fleurs blanches allongées et incurvées d'environ 4 cm.
 			Vue d'ensemble
@@ -547,10 +561,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1847 par le botaniste allemand Christian Gottfried Daniel Nees von Esenbeck (1776-1858).
-En classification phylogénétique APG III (2009)[2] comme en classification classique de Cronquist (1981)[3] elle fait partie du genre Pachystachys, famille des Acanthaceae.
+En classification phylogénétique APG III (2009) comme en classification classique de Cronquist (1981) elle fait partie du genre Pachystachys, famille des Acanthaceae.
 </t>
         </is>
       </c>
